--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -23,13 +23,13 @@
     <t>Order Id</t>
   </si>
   <si>
-    <t>rey.harvey@gmail.com</t>
+    <t>leatha.beer@gmail.com</t>
   </si>
   <si>
-    <t>417s0bdsnixl4d</t>
+    <t>2bbdhwmy</t>
   </si>
   <si>
-    <t>100023192</t>
+    <t>100023193</t>
   </si>
 </sst>
 </file>
@@ -96,6 +96,9 @@
         <v>3</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>5</v>
       </c>
     </row>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -23,13 +23,13 @@
     <t>Order Id</t>
   </si>
   <si>
-    <t>leatha.beer@gmail.com</t>
+    <t>armand.mcclure@yahoo.com</t>
   </si>
   <si>
-    <t>2bbdhwmy</t>
+    <t>bpvi0qvuw1uqie</t>
   </si>
   <si>
-    <t>100023193</t>
+    <t>100023200</t>
   </si>
 </sst>
 </file>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -23,13 +23,13 @@
     <t>Order Id</t>
   </si>
   <si>
-    <t>armand.mcclure@yahoo.com</t>
+    <t>donald.schumm@yahoo.com</t>
   </si>
   <si>
-    <t>bpvi0qvuw1uqie</t>
+    <t>g4ziplkh</t>
   </si>
   <si>
-    <t>100023200</t>
+    <t>100023203</t>
   </si>
 </sst>
 </file>
